--- a/test/HDR-VDP/hdrvdp-3.0.7/test_move/Test-1-SP/4/vdp-hdr-detection.xlsx
+++ b/test/HDR-VDP/hdrvdp-3.0.7/test_move/Test-1-SP/4/vdp-hdr-detection.xlsx
@@ -64,297 +64,297 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99912557444055938</v>
+        <v>0.99850114534168311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99904190636250112</v>
+        <v>0.99928035316489638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.90094917319563361</v>
+        <v>0.76556987424224476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8894458354297059</v>
+        <v>0.63981047638672361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.63861510301868663</v>
+        <v>0.49438961894859962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.89101816786559629</v>
+        <v>0.55442968963806993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93884445451337284</v>
+        <v>0.56094725214672314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.97866732029275794</v>
+        <v>0.78494766785344106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96423803632581817</v>
+        <v>0.93389049251852485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.98130214763554224</v>
+        <v>0.6305070102378475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.99151215088739908</v>
+        <v>0.67810123712965431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.89802731652025702</v>
+        <v>0.46067451238762586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9298092585708807</v>
+        <v>0.46612228605497885</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.85489206824126895</v>
+        <v>0.53852243141626877</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.85619771282878732</v>
+        <v>0.20299709768542135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.98131805603419309</v>
+        <v>0.69281855351465949</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90295231217050542</v>
+        <v>0.2647152327009385</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.88489740090692748</v>
+        <v>0.39889824572679639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.90816528783845374</v>
+        <v>0.37593146482017287</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.85120313546648863</v>
+        <v>0.3624486942936726</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.75703381345415699</v>
+        <v>0.37909743397727136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42227694719394798</v>
+        <v>0.11542716448814157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.59583248178904047</v>
+        <v>0.23332720634932536</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.83371224761358242</v>
+        <v>0.32914002361581568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.77885299583041234</v>
+        <v>0.23307982285222506</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94025952863437789</v>
+        <v>0.47586956981582873</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92605008323777438</v>
+        <v>0.73495681001872915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.84821529075261237</v>
+        <v>0.53845201758012229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.77099512726245967</v>
+        <v>0.42604259268477357</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.73844537037234403</v>
+        <v>0.37705119766408929</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.67542044407943291</v>
+        <v>0.26769039847228138</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.67708017022489619</v>
+        <v>0.3958494147432568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.71687408047372159</v>
+        <v>0.43446264323303208</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.73970856586842193</v>
+        <v>0.45029230464351055</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.74669874393500146</v>
+        <v>0.61132604257110346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.78203585923498953</v>
+        <v>0.60626961110925381</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.83368495255442732</v>
+        <v>0.61845464606076372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.89306483685224958</v>
+        <v>0.65713961382304109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.88426317972243018</v>
+        <v>0.74138401486627503</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76742414829221928</v>
+        <v>0.70214817024409393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.67862722796443875</v>
+        <v>0.52021201184863541</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.60685859470911308</v>
+        <v>0.60535045189067183</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.30813216090868106</v>
+        <v>0.48821164007359519</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.77091301304325455</v>
+        <v>0.47977011115672097</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.64319920030723687</v>
+        <v>0.4749637132450743</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.47979627544508063</v>
+        <v>0.37064462817964716</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.50292050246833786</v>
+        <v>0.37138974227303101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.53796940155739137</v>
+        <v>0.39001148449285694</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.56507426942506112</v>
+        <v>0.50296804482521407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.41854769967937916</v>
+        <v>0.40323239081410978</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.4006222630990629</v>
+        <v>0.45072211248275074</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.45761556094344608</v>
+        <v>0.43687182600181146</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.41306408615571616</v>
+        <v>0.53047946438166649</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.50090107998577071</v>
+        <v>0.53381936152368203</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.48013475161230595</v>
+        <v>0.55265692800978516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.69679568133042058</v>
+        <v>0.60329978759780123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.48487257291492442</v>
+        <v>0.63389499940373761</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.4330118086004846</v>
+        <v>0.52086263021228885</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.4155984485676843</v>
+        <v>0.48096398230913701</v>
       </c>
     </row>
   </sheetData>
